--- a/upload/excel_export_ci_(1).xlsx
+++ b/upload/excel_export_ci_(1).xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>Sr No.</t>
   </si>
@@ -27,6 +27,33 @@
   </si>
   <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>hbjn</t>
+  </si>
+  <si>
+    <t>test4@gmail.com</t>
+  </si>
+  <si>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>jnmk</t>
+  </si>
+  <si>
+    <t>test5@gmail.com</t>
+  </si>
+  <si>
+    <t>test6</t>
+  </si>
+  <si>
+    <t>kmnj</t>
+  </si>
+  <si>
+    <t>test6@gmail.com</t>
   </si>
   <si>
     <t>test</t>
@@ -415,7 +442,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:D1"/>
@@ -504,13 +531,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -518,13 +545,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -532,83 +559,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
